--- a/RMPP/Exe9.1D.xlsx
+++ b/RMPP/Exe9.1D.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwolloff/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwolloff/Desktop/MyPortfolio/RMPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB6FAE-62BD-AA49-9AB3-8EA4F19EDDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB1DC9D-F2CE-2C44-9C0B-C4558310A6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="1620" windowWidth="25580" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="12">
   <si>
     <t>Area</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Area 2</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>From the data we can conclude the following Brand A is the least popular in both areas Brand B is the second most popular in both areas through more people prefer it in Area B then Area A and Other is the most popular in both areas</t>
   </si>
 </sst>
 </file>
@@ -108,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,6 +128,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,13 +905,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="62" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -1126,7 +1139,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1145,7 +1158,7 @@
         <v>45.555555555555557</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1164,7 +1177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1172,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1180,7 +1193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -1188,7 +1201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -1196,7 +1209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -1204,7 +1217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -1212,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -1220,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -1228,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -1236,7 +1249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -1244,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -1252,7 +1265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -1260,20 +1273,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H31" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
